--- a/APPSHEET/EXCEL/caja_cerrado_ano.xlsx
+++ b/APPSHEET/EXCEL/caja_cerrado_ano.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr filterPrivacy="1"/>
   <sheets>
-    <sheet name="null" sheetId="1" r:id="rId1"/>
+    <sheet name="caja" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -207,7 +207,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">32</t>
+            <t xml:space="preserve">33</t>
           </r>
         </is>
       </c>
@@ -216,7 +216,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-21 19:00</t>
+            <t xml:space="preserve">2022-09-22 00:07</t>
           </r>
         </is>
       </c>
@@ -225,7 +225,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-21 19:07</t>
+            <t xml:space="preserve">2022-09-22 00:07</t>
           </r>
         </is>
       </c>
@@ -234,7 +234,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-21</t>
+            <t xml:space="preserve">2022-09-22</t>
           </r>
         </is>
       </c>
@@ -243,7 +243,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">382000</t>
+            <t xml:space="preserve">210000</t>
           </r>
         </is>
       </c>
@@ -261,7 +261,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">382000</t>
+            <t xml:space="preserve">210000</t>
           </r>
         </is>
       </c>
@@ -270,7 +270,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
           </r>
         </is>
       </c>
@@ -281,7 +281,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">31</t>
+            <t xml:space="preserve">32</t>
           </r>
         </is>
       </c>
@@ -290,7 +290,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-21 19:14</t>
+            <t xml:space="preserve">2022-09-21 19:00</t>
           </r>
         </is>
       </c>
@@ -299,7 +299,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-21 19:14</t>
+            <t xml:space="preserve">2022-09-21 19:07</t>
           </r>
         </is>
       </c>
@@ -317,7 +317,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">382000</t>
           </r>
         </is>
       </c>
@@ -335,7 +335,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">382000</t>
           </r>
         </is>
       </c>
@@ -344,7 +344,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">PEDRO PABLO </t>
           </r>
         </is>
       </c>
@@ -355,7 +355,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">30</t>
+            <t xml:space="preserve">31</t>
           </r>
         </is>
       </c>
@@ -364,7 +364,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-20 18:27</t>
+            <t xml:space="preserve">2022-09-21 19:14</t>
           </r>
         </is>
       </c>
@@ -373,7 +373,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-21 17:02</t>
+            <t xml:space="preserve">2022-09-21 19:14</t>
           </r>
         </is>
       </c>
@@ -391,7 +391,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3930000</t>
+            <t xml:space="preserve">80000</t>
           </r>
         </is>
       </c>
@@ -409,7 +409,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3930000</t>
+            <t xml:space="preserve">80000</t>
           </r>
         </is>
       </c>
@@ -429,7 +429,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">29</t>
+            <t xml:space="preserve">30</t>
           </r>
         </is>
       </c>
@@ -438,7 +438,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-20 12:59</t>
+            <t xml:space="preserve">2022-09-20 18:27</t>
           </r>
         </is>
       </c>
@@ -447,7 +447,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-20 15:42</t>
+            <t xml:space="preserve">2022-09-21 17:02</t>
           </r>
         </is>
       </c>
@@ -456,7 +456,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-20</t>
+            <t xml:space="preserve">2022-09-21</t>
           </r>
         </is>
       </c>
@@ -465,7 +465,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">360000</t>
+            <t xml:space="preserve">3930000</t>
           </r>
         </is>
       </c>
@@ -474,7 +474,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">60000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -483,7 +483,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">300000</t>
+            <t xml:space="preserve">3930000</t>
           </r>
         </is>
       </c>
@@ -492,7 +492,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
           </r>
         </is>
       </c>
@@ -503,7 +503,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">28</t>
+            <t xml:space="preserve">29</t>
           </r>
         </is>
       </c>
@@ -512,7 +512,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-20 00:46</t>
+            <t xml:space="preserve">2022-09-20 12:59</t>
           </r>
         </is>
       </c>
@@ -521,7 +521,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-20 00:47</t>
+            <t xml:space="preserve">2022-09-20 15:42</t>
           </r>
         </is>
       </c>
@@ -539,7 +539,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">150000</t>
+            <t xml:space="preserve">360000</t>
           </r>
         </is>
       </c>
@@ -548,7 +548,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">30000</t>
+            <t xml:space="preserve">60000</t>
           </r>
         </is>
       </c>
@@ -557,7 +557,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">120000</t>
+            <t xml:space="preserve">300000</t>
           </r>
         </is>
       </c>
@@ -566,7 +566,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">PEDRO PABLO </t>
           </r>
         </is>
       </c>
@@ -577,7 +577,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">27</t>
+            <t xml:space="preserve">28</t>
           </r>
         </is>
       </c>
@@ -586,7 +586,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-19 12:17</t>
+            <t xml:space="preserve">2022-09-20 00:46</t>
           </r>
         </is>
       </c>
@@ -595,7 +595,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-19 13:11</t>
+            <t xml:space="preserve">2022-09-20 00:47</t>
           </r>
         </is>
       </c>
@@ -604,7 +604,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-19</t>
+            <t xml:space="preserve">2022-09-20</t>
           </r>
         </is>
       </c>
@@ -613,7 +613,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1322000</t>
+            <t xml:space="preserve">150000</t>
           </r>
         </is>
       </c>
@@ -622,7 +622,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">122000</t>
+            <t xml:space="preserve">30000</t>
           </r>
         </is>
       </c>
@@ -631,7 +631,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1200000</t>
+            <t xml:space="preserve">120000</t>
           </r>
         </is>
       </c>
@@ -651,7 +651,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">26</t>
+            <t xml:space="preserve">27</t>
           </r>
         </is>
       </c>
@@ -660,7 +660,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-19 00:19</t>
+            <t xml:space="preserve">2022-09-19 12:17</t>
           </r>
         </is>
       </c>
@@ -669,7 +669,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-19 23:23</t>
+            <t xml:space="preserve">2022-09-19 13:11</t>
           </r>
         </is>
       </c>
@@ -687,7 +687,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1005000</t>
+            <t xml:space="preserve">1322000</t>
           </r>
         </is>
       </c>
@@ -696,7 +696,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">27000</t>
+            <t xml:space="preserve">122000</t>
           </r>
         </is>
       </c>
@@ -705,7 +705,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">978000</t>
+            <t xml:space="preserve">1200000</t>
           </r>
         </is>
       </c>
@@ -714,7 +714,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
           </r>
         </is>
       </c>
@@ -725,7 +725,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25</t>
+            <t xml:space="preserve">26</t>
           </r>
         </is>
       </c>
@@ -734,7 +734,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-18 23:47</t>
+            <t xml:space="preserve">2022-09-19 00:19</t>
           </r>
         </is>
       </c>
@@ -743,7 +743,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-18 23:52</t>
+            <t xml:space="preserve">2022-09-19 23:23</t>
           </r>
         </is>
       </c>
@@ -752,7 +752,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-18</t>
+            <t xml:space="preserve">2022-09-19</t>
           </r>
         </is>
       </c>
@@ -761,7 +761,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">200000</t>
+            <t xml:space="preserve">1005000</t>
           </r>
         </is>
       </c>
@@ -770,7 +770,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">55000</t>
+            <t xml:space="preserve">27000</t>
           </r>
         </is>
       </c>
@@ -779,7 +779,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">145000</t>
+            <t xml:space="preserve">978000</t>
           </r>
         </is>
       </c>
@@ -799,7 +799,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">24</t>
+            <t xml:space="preserve">25</t>
           </r>
         </is>
       </c>
@@ -808,7 +808,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-16 10:34</t>
+            <t xml:space="preserve">2022-09-18 23:47</t>
           </r>
         </is>
       </c>
@@ -817,7 +817,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-18 23:09</t>
+            <t xml:space="preserve">2022-09-18 23:52</t>
           </r>
         </is>
       </c>
@@ -835,7 +835,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1500000</t>
+            <t xml:space="preserve">200000</t>
           </r>
         </is>
       </c>
@@ -844,7 +844,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">265000</t>
+            <t xml:space="preserve">55000</t>
           </r>
         </is>
       </c>
@@ -853,7 +853,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1235000</t>
+            <t xml:space="preserve">145000</t>
           </r>
         </is>
       </c>
@@ -862,7 +862,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">PEDRO PABLO </t>
           </r>
         </is>
       </c>
@@ -873,7 +873,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">23</t>
+            <t xml:space="preserve">24</t>
           </r>
         </is>
       </c>
@@ -882,7 +882,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-14 14:44</t>
+            <t xml:space="preserve">2022-09-16 10:34</t>
           </r>
         </is>
       </c>
@@ -891,7 +891,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-14 14:48</t>
+            <t xml:space="preserve">2022-09-18 23:09</t>
           </r>
         </is>
       </c>
@@ -900,7 +900,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-14</t>
+            <t xml:space="preserve">2022-09-18</t>
           </r>
         </is>
       </c>
@@ -909,7 +909,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1190000</t>
+            <t xml:space="preserve">1500000</t>
           </r>
         </is>
       </c>
@@ -918,7 +918,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">265000</t>
           </r>
         </is>
       </c>
@@ -927,7 +927,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1190000</t>
+            <t xml:space="preserve">1235000</t>
           </r>
         </is>
       </c>
@@ -936,7 +936,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
           </r>
         </is>
       </c>
@@ -947,7 +947,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">22</t>
+            <t xml:space="preserve">23</t>
           </r>
         </is>
       </c>
@@ -956,7 +956,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-09 14:14</t>
+            <t xml:space="preserve">2022-09-14 14:44</t>
           </r>
         </is>
       </c>
@@ -965,7 +965,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-13 23:34</t>
+            <t xml:space="preserve">2022-09-14 14:48</t>
           </r>
         </is>
       </c>
@@ -974,7 +974,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-13</t>
+            <t xml:space="preserve">2022-09-14</t>
           </r>
         </is>
       </c>
@@ -983,7 +983,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4940000</t>
+            <t xml:space="preserve">1190000</t>
           </r>
         </is>
       </c>
@@ -1001,7 +1001,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4940000</t>
+            <t xml:space="preserve">1190000</t>
           </r>
         </is>
       </c>
@@ -1010,7 +1010,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">PEDRO PABLO </t>
           </r>
         </is>
       </c>
@@ -1021,7 +1021,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21</t>
+            <t xml:space="preserve">22</t>
           </r>
         </is>
       </c>
@@ -1030,7 +1030,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-06 02:08</t>
+            <t xml:space="preserve">2022-09-09 14:14</t>
           </r>
         </is>
       </c>
@@ -1039,7 +1039,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-06 02:13</t>
+            <t xml:space="preserve">2022-09-13 23:34</t>
           </r>
         </is>
       </c>
@@ -1048,7 +1048,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-06</t>
+            <t xml:space="preserve">2022-09-13</t>
           </r>
         </is>
       </c>
@@ -1057,7 +1057,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">4940000</t>
           </r>
         </is>
       </c>
@@ -1075,7 +1075,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">4940000</t>
           </r>
         </is>
       </c>
@@ -1095,7 +1095,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">20</t>
+            <t xml:space="preserve">21</t>
           </r>
         </is>
       </c>
@@ -1104,7 +1104,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-06 01:49</t>
+            <t xml:space="preserve">2022-09-06 02:08</t>
           </r>
         </is>
       </c>
@@ -1113,7 +1113,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-06 21:24</t>
+            <t xml:space="preserve">2022-09-06 02:13</t>
           </r>
         </is>
       </c>
@@ -1131,7 +1131,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2058000</t>
+            <t xml:space="preserve">80000</t>
           </r>
         </is>
       </c>
@@ -1149,7 +1149,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2058000</t>
+            <t xml:space="preserve">80000</t>
           </r>
         </is>
       </c>
@@ -1158,7 +1158,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
           </r>
         </is>
       </c>
@@ -1169,7 +1169,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">19</t>
+            <t xml:space="preserve">20</t>
           </r>
         </is>
       </c>
@@ -1178,7 +1178,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-02 23:58</t>
+            <t xml:space="preserve">2022-09-06 01:49</t>
           </r>
         </is>
       </c>
@@ -1187,7 +1187,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-06 02:04</t>
+            <t xml:space="preserve">2022-09-06 21:24</t>
           </r>
         </is>
       </c>
@@ -1205,7 +1205,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1726000</t>
+            <t xml:space="preserve">2058000</t>
           </r>
         </is>
       </c>
@@ -1223,7 +1223,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1726000</t>
+            <t xml:space="preserve">2058000</t>
           </r>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">PEDRO PABLO </t>
           </r>
         </is>
       </c>
@@ -1243,7 +1243,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">18</t>
+            <t xml:space="preserve">19</t>
           </r>
         </is>
       </c>
@@ -1252,7 +1252,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-02 00:32</t>
+            <t xml:space="preserve">2022-09-02 23:58</t>
           </r>
         </is>
       </c>
@@ -1261,7 +1261,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-02 21:11</t>
+            <t xml:space="preserve">2022-09-06 02:04</t>
           </r>
         </is>
       </c>
@@ -1270,7 +1270,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-02</t>
+            <t xml:space="preserve">2022-09-06</t>
           </r>
         </is>
       </c>
@@ -1279,7 +1279,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2200000</t>
+            <t xml:space="preserve">1726000</t>
           </r>
         </is>
       </c>
@@ -1297,7 +1297,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2200000</t>
+            <t xml:space="preserve">1726000</t>
           </r>
         </is>
       </c>
@@ -1306,7 +1306,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
           </r>
         </is>
       </c>
@@ -1317,7 +1317,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">17</t>
+            <t xml:space="preserve">18</t>
           </r>
         </is>
       </c>
@@ -1326,7 +1326,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-30 21:36</t>
+            <t xml:space="preserve">2022-09-02 00:32</t>
           </r>
         </is>
       </c>
@@ -1335,7 +1335,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-02 00:21</t>
+            <t xml:space="preserve">2022-09-02 21:11</t>
           </r>
         </is>
       </c>
@@ -1353,7 +1353,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3470000</t>
+            <t xml:space="preserve">2200000</t>
           </r>
         </is>
       </c>
@@ -1371,7 +1371,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3470000</t>
+            <t xml:space="preserve">2200000</t>
           </r>
         </is>
       </c>
@@ -1380,7 +1380,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">PEDRO PABLO </t>
           </r>
         </is>
       </c>
@@ -1391,7 +1391,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">16</t>
+            <t xml:space="preserve">17</t>
           </r>
         </is>
       </c>
@@ -1400,7 +1400,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-29 23:21</t>
+            <t xml:space="preserve">2022-08-30 21:36</t>
           </r>
         </is>
       </c>
@@ -1409,7 +1409,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-29 23:23</t>
+            <t xml:space="preserve">2022-09-02 00:21</t>
           </r>
         </is>
       </c>
@@ -1418,7 +1418,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-29</t>
+            <t xml:space="preserve">2022-09-02</t>
           </r>
         </is>
       </c>
@@ -1427,7 +1427,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">320000</t>
+            <t xml:space="preserve">3470000</t>
           </r>
         </is>
       </c>
@@ -1445,7 +1445,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">320000</t>
+            <t xml:space="preserve">3470000</t>
           </r>
         </is>
       </c>
@@ -1465,7 +1465,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15</t>
+            <t xml:space="preserve">16</t>
           </r>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28 02:35</t>
+            <t xml:space="preserve">2022-08-29 23:21</t>
           </r>
         </is>
       </c>
@@ -1483,7 +1483,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28 02:35</t>
+            <t xml:space="preserve">2022-08-29 23:23</t>
           </r>
         </is>
       </c>
@@ -1492,7 +1492,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28</t>
+            <t xml:space="preserve">2022-08-29</t>
           </r>
         </is>
       </c>
@@ -1501,7 +1501,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">90000</t>
+            <t xml:space="preserve">320000</t>
           </r>
         </is>
       </c>
@@ -1519,7 +1519,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">90000</t>
+            <t xml:space="preserve">320000</t>
           </r>
         </is>
       </c>
@@ -1528,7 +1528,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
           </r>
         </is>
       </c>
@@ -1539,7 +1539,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">14</t>
+            <t xml:space="preserve">15</t>
           </r>
         </is>
       </c>
@@ -1548,7 +1548,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28 22:37</t>
+            <t xml:space="preserve">2022-08-28 02:35</t>
           </r>
         </is>
       </c>
@@ -1557,7 +1557,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-29 22:24</t>
+            <t xml:space="preserve">2022-08-28 02:35</t>
           </r>
         </is>
       </c>
@@ -1566,7 +1566,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-29</t>
+            <t xml:space="preserve">2022-08-28</t>
           </r>
         </is>
       </c>
@@ -1575,7 +1575,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2036000</t>
+            <t xml:space="preserve">90000</t>
           </r>
         </is>
       </c>
@@ -1593,7 +1593,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2036000</t>
+            <t xml:space="preserve">90000</t>
           </r>
         </is>
       </c>
@@ -1602,7 +1602,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">PEDRO PABLO </t>
           </r>
         </is>
       </c>
@@ -1613,7 +1613,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13</t>
+            <t xml:space="preserve">14</t>
           </r>
         </is>
       </c>
@@ -1622,7 +1622,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28 01:19</t>
+            <t xml:space="preserve">2022-08-28 22:37</t>
           </r>
         </is>
       </c>
@@ -1631,7 +1631,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28 01:22</t>
+            <t xml:space="preserve">2022-08-29 22:24</t>
           </r>
         </is>
       </c>
@@ -1640,7 +1640,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28</t>
+            <t xml:space="preserve">2022-08-29</t>
           </r>
         </is>
       </c>
@@ -1649,7 +1649,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">862000</t>
+            <t xml:space="preserve">2036000</t>
           </r>
         </is>
       </c>
@@ -1667,7 +1667,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">862000</t>
+            <t xml:space="preserve">2036000</t>
           </r>
         </is>
       </c>
@@ -1676,7 +1676,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
           </r>
         </is>
       </c>
@@ -1687,7 +1687,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">12</t>
+            <t xml:space="preserve">13</t>
           </r>
         </is>
       </c>
@@ -1696,7 +1696,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28 01:02</t>
+            <t xml:space="preserve">2022-08-28 01:19</t>
           </r>
         </is>
       </c>
@@ -1705,7 +1705,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28 02:26</t>
+            <t xml:space="preserve">2022-08-28 01:22</t>
           </r>
         </is>
       </c>
@@ -1723,7 +1723,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">577000</t>
+            <t xml:space="preserve">862000</t>
           </r>
         </is>
       </c>
@@ -1741,7 +1741,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">577000</t>
+            <t xml:space="preserve">862000</t>
           </r>
         </is>
       </c>
@@ -1750,7 +1750,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">PEDRO PABLO </t>
           </r>
         </is>
       </c>
@@ -1761,7 +1761,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">11</t>
+            <t xml:space="preserve">12</t>
           </r>
         </is>
       </c>
@@ -1770,7 +1770,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-26 10:38</t>
+            <t xml:space="preserve">2022-08-28 01:02</t>
           </r>
         </is>
       </c>
@@ -1779,7 +1779,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-27 22:52</t>
+            <t xml:space="preserve">2022-08-28 02:26</t>
           </r>
         </is>
       </c>
@@ -1788,7 +1788,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-27</t>
+            <t xml:space="preserve">2022-08-28</t>
           </r>
         </is>
       </c>
@@ -1797,7 +1797,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3908000</t>
+            <t xml:space="preserve">577000</t>
           </r>
         </is>
       </c>
@@ -1815,7 +1815,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3908000</t>
+            <t xml:space="preserve">577000</t>
           </r>
         </is>
       </c>
@@ -1835,7 +1835,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10</t>
+            <t xml:space="preserve">11</t>
           </r>
         </is>
       </c>
@@ -1844,7 +1844,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-26 00:50</t>
+            <t xml:space="preserve">2022-08-26 10:38</t>
           </r>
         </is>
       </c>
@@ -1853,7 +1853,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-26 10:14</t>
+            <t xml:space="preserve">2022-08-27 22:52</t>
           </r>
         </is>
       </c>
@@ -1862,7 +1862,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-26</t>
+            <t xml:space="preserve">2022-08-27</t>
           </r>
         </is>
       </c>
@@ -1871,7 +1871,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1288000</t>
+            <t xml:space="preserve">3908000</t>
           </r>
         </is>
       </c>
@@ -1889,7 +1889,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1288000</t>
+            <t xml:space="preserve">3908000</t>
           </r>
         </is>
       </c>
@@ -1909,7 +1909,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9</t>
+            <t xml:space="preserve">10</t>
           </r>
         </is>
       </c>
@@ -1918,7 +1918,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-25 22:24</t>
+            <t xml:space="preserve">2022-08-26 00:50</t>
           </r>
         </is>
       </c>
@@ -1927,7 +1927,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-25 22:26</t>
+            <t xml:space="preserve">2022-08-26 10:14</t>
           </r>
         </is>
       </c>
@@ -1936,7 +1936,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-25</t>
+            <t xml:space="preserve">2022-08-26</t>
           </r>
         </is>
       </c>
@@ -1945,7 +1945,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3450000</t>
+            <t xml:space="preserve">1288000</t>
           </r>
         </is>
       </c>
@@ -1963,7 +1963,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3450000</t>
+            <t xml:space="preserve">1288000</t>
           </r>
         </is>
       </c>
@@ -1983,7 +1983,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8</t>
+            <t xml:space="preserve">9</t>
           </r>
         </is>
       </c>
@@ -1992,7 +1992,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-24 23:18</t>
+            <t xml:space="preserve">2022-08-25 22:24</t>
           </r>
         </is>
       </c>
@@ -2001,7 +2001,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-25 01:47</t>
+            <t xml:space="preserve">2022-08-25 22:26</t>
           </r>
         </is>
       </c>
@@ -2019,7 +2019,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1318000</t>
+            <t xml:space="preserve">3450000</t>
           </r>
         </is>
       </c>
@@ -2037,7 +2037,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1318000</t>
+            <t xml:space="preserve">3450000</t>
           </r>
         </is>
       </c>
@@ -2046,7 +2046,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
           </r>
         </is>
       </c>
@@ -2057,7 +2057,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7</t>
+            <t xml:space="preserve">8</t>
           </r>
         </is>
       </c>
@@ -2066,7 +2066,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-24 17:26</t>
+            <t xml:space="preserve">2022-08-24 23:18</t>
           </r>
         </is>
       </c>
@@ -2075,7 +2075,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-24 17:27</t>
+            <t xml:space="preserve">2022-08-25 01:47</t>
           </r>
         </is>
       </c>
@@ -2084,7 +2084,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-24</t>
+            <t xml:space="preserve">2022-08-25</t>
           </r>
         </is>
       </c>
@@ -2093,7 +2093,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">200000</t>
+            <t xml:space="preserve">1318000</t>
           </r>
         </is>
       </c>
@@ -2111,7 +2111,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">200000</t>
+            <t xml:space="preserve">1318000</t>
           </r>
         </is>
       </c>
@@ -2131,7 +2131,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6</t>
+            <t xml:space="preserve">7</t>
           </r>
         </is>
       </c>
@@ -2140,7 +2140,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-24 17:16</t>
+            <t xml:space="preserve">2022-08-24 17:26</t>
           </r>
         </is>
       </c>
@@ -2149,7 +2149,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-24 17:16</t>
+            <t xml:space="preserve">2022-08-24 17:27</t>
           </r>
         </is>
       </c>
@@ -2167,7 +2167,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">474000</t>
+            <t xml:space="preserve">200000</t>
           </r>
         </is>
       </c>
@@ -2185,7 +2185,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">474000</t>
+            <t xml:space="preserve">200000</t>
           </r>
         </is>
       </c>
@@ -2194,7 +2194,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">PEDRO PABLO </t>
           </r>
         </is>
       </c>
@@ -2205,7 +2205,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5</t>
+            <t xml:space="preserve">6</t>
           </r>
         </is>
       </c>
@@ -2214,7 +2214,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-24 12:50</t>
+            <t xml:space="preserve">2022-08-24 17:16</t>
           </r>
         </is>
       </c>
@@ -2223,7 +2223,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-24 12:53</t>
+            <t xml:space="preserve">2022-08-24 17:16</t>
           </r>
         </is>
       </c>
@@ -2241,7 +2241,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1550000</t>
+            <t xml:space="preserve">474000</t>
           </r>
         </is>
       </c>
@@ -2259,7 +2259,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1550000</t>
+            <t xml:space="preserve">474000</t>
           </r>
         </is>
       </c>
@@ -2268,7 +2268,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
           </r>
         </is>
       </c>
@@ -2279,7 +2279,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
@@ -2288,7 +2288,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-24 02:36</t>
+            <t xml:space="preserve">2022-08-24 12:50</t>
           </r>
         </is>
       </c>
@@ -2297,7 +2297,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-24 02:38</t>
+            <t xml:space="preserve">2022-08-24 12:53</t>
           </r>
         </is>
       </c>
@@ -2315,7 +2315,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">390000</t>
+            <t xml:space="preserve">1550000</t>
           </r>
         </is>
       </c>
@@ -2333,7 +2333,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">390000</t>
+            <t xml:space="preserve">1550000</t>
           </r>
         </is>
       </c>
@@ -2342,7 +2342,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">PEDRO PABLO </t>
           </r>
         </is>
       </c>
@@ -2353,7 +2353,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -2362,7 +2362,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-24 10:31</t>
+            <t xml:space="preserve">2022-08-24 02:36</t>
           </r>
         </is>
       </c>
@@ -2371,7 +2371,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-24 10:33</t>
+            <t xml:space="preserve">2022-08-24 02:38</t>
           </r>
         </is>
       </c>
@@ -2389,7 +2389,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">620000</t>
+            <t xml:space="preserve">390000</t>
           </r>
         </is>
       </c>
@@ -2407,7 +2407,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">620000</t>
+            <t xml:space="preserve">390000</t>
           </r>
         </is>
       </c>
@@ -2416,7 +2416,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
           </r>
         </is>
       </c>
@@ -2427,7 +2427,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">3</t>
           </r>
         </is>
       </c>
@@ -2436,7 +2436,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-23 10:55</t>
+            <t xml:space="preserve">2022-08-24 10:31</t>
           </r>
         </is>
       </c>
@@ -2445,7 +2445,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-23 23:43</t>
+            <t xml:space="preserve">2022-08-24 10:33</t>
           </r>
         </is>
       </c>
@@ -2454,7 +2454,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-23</t>
+            <t xml:space="preserve">2022-08-24</t>
           </r>
         </is>
       </c>
@@ -2463,7 +2463,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3506000</t>
+            <t xml:space="preserve">620000</t>
           </r>
         </is>
       </c>
@@ -2481,7 +2481,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3506000</t>
+            <t xml:space="preserve">620000</t>
           </r>
         </is>
       </c>
@@ -2501,11 +2501,85 @@
           <r>
             <rPr>
        </rPr>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2022-08-23 10:55</t>
+          </r>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2022-08-23 23:43</t>
+          </r>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2022-08-23</t>
+          </r>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3506000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3506000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PEDRO PABLO </t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="34" customHeight="1" ht="11">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
             <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -2514,7 +2588,7 @@
           </r>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -2523,7 +2597,7 @@
           </r>
         </is>
       </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="D34" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -2532,7 +2606,7 @@
           </r>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -2541,7 +2615,7 @@
           </r>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -2550,7 +2624,7 @@
           </r>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -2559,7 +2633,7 @@
           </r>
         </is>
       </c>
-      <c r="H33" s="2" t="inlineStr">
+      <c r="H34" s="2" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -2569,15 +2643,15 @@
         </is>
       </c>
     </row>
-    <row r="34" customHeight="1" ht="1119">
-      <c r="A34" s="3" t="inlineStr"/>
-      <c r="B34" s="3" t="inlineStr"/>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr"/>
-      <c r="G34" s="3" t="inlineStr"/>
-      <c r="H34" s="3" t="inlineStr"/>
+    <row r="35" customHeight="1" ht="1128">
+      <c r="A35" s="3" t="inlineStr"/>
+      <c r="B35" s="3" t="inlineStr"/>
+      <c r="C35" s="3" t="inlineStr"/>
+      <c r="D35" s="3" t="inlineStr"/>
+      <c r="E35" s="3" t="inlineStr"/>
+      <c r="F35" s="3" t="inlineStr"/>
+      <c r="G35" s="3" t="inlineStr"/>
+      <c r="H35" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>

--- a/APPSHEET/EXCEL/caja_cerrado_ano.xlsx
+++ b/APPSHEET/EXCEL/caja_cerrado_ano.xlsx
@@ -207,7 +207,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">33</t>
+            <t xml:space="preserve">240</t>
           </r>
         </is>
       </c>
@@ -216,7 +216,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-22 00:07</t>
+            <t xml:space="preserve">2022-10-26 01:12</t>
           </r>
         </is>
       </c>
@@ -225,7 +225,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-22 00:07</t>
+            <t xml:space="preserve">2023-01-07 23:02</t>
           </r>
         </is>
       </c>
@@ -234,7 +234,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-22</t>
+            <t xml:space="preserve">2023-01-07</t>
           </r>
         </is>
       </c>
@@ -243,7 +243,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">210000</t>
+            <t xml:space="preserve">50000</t>
           </r>
         </is>
       </c>
@@ -252,7 +252,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">120000</t>
           </r>
         </is>
       </c>
@@ -261,7 +261,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">210000</t>
+            <t xml:space="preserve">-70000</t>
           </r>
         </is>
       </c>
@@ -281,7 +281,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">32</t>
+            <t xml:space="preserve">239</t>
           </r>
         </is>
       </c>
@@ -290,7 +290,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-21 19:00</t>
+            <t xml:space="preserve">2023-01-07 13:59</t>
           </r>
         </is>
       </c>
@@ -299,7 +299,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-21 19:07</t>
+            <t xml:space="preserve">2023-01-07 22:00</t>
           </r>
         </is>
       </c>
@@ -308,7 +308,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-21</t>
+            <t xml:space="preserve">2023-01-07</t>
           </r>
         </is>
       </c>
@@ -317,7 +317,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">382000</t>
+            <t xml:space="preserve">1661000</t>
           </r>
         </is>
       </c>
@@ -326,7 +326,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">200000</t>
           </r>
         </is>
       </c>
@@ -335,7 +335,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">382000</t>
+            <t xml:space="preserve">1461000</t>
           </r>
         </is>
       </c>
@@ -344,7 +344,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">NILDA ESCOBAR </t>
           </r>
         </is>
       </c>
@@ -355,7 +355,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">31</t>
+            <t xml:space="preserve">238</t>
           </r>
         </is>
       </c>
@@ -364,7 +364,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-21 19:14</t>
+            <t xml:space="preserve">2023-01-07 05:57</t>
           </r>
         </is>
       </c>
@@ -373,7 +373,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-21 19:14</t>
+            <t xml:space="preserve">2023-01-07 13:58</t>
           </r>
         </is>
       </c>
@@ -382,7 +382,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-21</t>
+            <t xml:space="preserve">2023-01-07</t>
           </r>
         </is>
       </c>
@@ -391,7 +391,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">950000</t>
           </r>
         </is>
       </c>
@@ -400,7 +400,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">215000</t>
           </r>
         </is>
       </c>
@@ -409,7 +409,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">735000</t>
           </r>
         </is>
       </c>
@@ -418,7 +418,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">JULIO</t>
           </r>
         </is>
       </c>
@@ -429,7 +429,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">30</t>
+            <t xml:space="preserve">237</t>
           </r>
         </is>
       </c>
@@ -438,7 +438,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-20 18:27</t>
+            <t xml:space="preserve">2023-01-06 21:51</t>
           </r>
         </is>
       </c>
@@ -447,7 +447,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-21 17:02</t>
+            <t xml:space="preserve">2023-01-07 03:40</t>
           </r>
         </is>
       </c>
@@ -456,7 +456,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-21</t>
+            <t xml:space="preserve">2023-01-07</t>
           </r>
         </is>
       </c>
@@ -465,7 +465,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3930000</t>
+            <t xml:space="preserve">835000</t>
           </r>
         </is>
       </c>
@@ -483,7 +483,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3930000</t>
+            <t xml:space="preserve">835000</t>
           </r>
         </is>
       </c>
@@ -492,7 +492,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">OSMAR YRIGOYEN</t>
           </r>
         </is>
       </c>
@@ -503,7 +503,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">29</t>
+            <t xml:space="preserve">236</t>
           </r>
         </is>
       </c>
@@ -512,7 +512,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-20 12:59</t>
+            <t xml:space="preserve">2023-01-06 13:48</t>
           </r>
         </is>
       </c>
@@ -521,7 +521,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-20 15:42</t>
+            <t xml:space="preserve">2023-01-06 21:38</t>
           </r>
         </is>
       </c>
@@ -530,7 +530,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-20</t>
+            <t xml:space="preserve">2023-01-06</t>
           </r>
         </is>
       </c>
@@ -539,7 +539,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">360000</t>
+            <t xml:space="preserve">1446000</t>
           </r>
         </is>
       </c>
@@ -548,7 +548,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">60000</t>
+            <t xml:space="preserve">50000</t>
           </r>
         </is>
       </c>
@@ -557,7 +557,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">300000</t>
+            <t xml:space="preserve">1396000</t>
           </r>
         </is>
       </c>
@@ -566,7 +566,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">JULIO</t>
           </r>
         </is>
       </c>
@@ -577,7 +577,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">28</t>
+            <t xml:space="preserve">235</t>
           </r>
         </is>
       </c>
@@ -586,7 +586,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-20 00:46</t>
+            <t xml:space="preserve">2023-01-06 05:52</t>
           </r>
         </is>
       </c>
@@ -595,7 +595,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-20 00:47</t>
+            <t xml:space="preserve">2023-01-06 13:34</t>
           </r>
         </is>
       </c>
@@ -604,7 +604,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-20</t>
+            <t xml:space="preserve">2023-01-06</t>
           </r>
         </is>
       </c>
@@ -613,7 +613,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">150000</t>
+            <t xml:space="preserve">574000</t>
           </r>
         </is>
       </c>
@@ -622,7 +622,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">30000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -631,7 +631,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">120000</t>
+            <t xml:space="preserve">574000</t>
           </r>
         </is>
       </c>
@@ -640,7 +640,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">JHON RODRIGUEZ</t>
           </r>
         </is>
       </c>
@@ -651,7 +651,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">27</t>
+            <t xml:space="preserve">234</t>
           </r>
         </is>
       </c>
@@ -660,7 +660,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-19 12:17</t>
+            <t xml:space="preserve">2023-01-05 21:59</t>
           </r>
         </is>
       </c>
@@ -669,7 +669,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-19 13:11</t>
+            <t xml:space="preserve">2023-01-06 05:43</t>
           </r>
         </is>
       </c>
@@ -678,7 +678,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-19</t>
+            <t xml:space="preserve">2023-01-06</t>
           </r>
         </is>
       </c>
@@ -687,7 +687,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1322000</t>
+            <t xml:space="preserve">658000</t>
           </r>
         </is>
       </c>
@@ -696,7 +696,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">122000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -705,7 +705,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1200000</t>
+            <t xml:space="preserve">658000</t>
           </r>
         </is>
       </c>
@@ -714,7 +714,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">OSMAR YRIGOYEN</t>
           </r>
         </is>
       </c>
@@ -725,7 +725,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">26</t>
+            <t xml:space="preserve">233</t>
           </r>
         </is>
       </c>
@@ -734,7 +734,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-19 00:19</t>
+            <t xml:space="preserve">2023-01-05 14:01</t>
           </r>
         </is>
       </c>
@@ -743,7 +743,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-19 23:23</t>
+            <t xml:space="preserve">2023-01-05 21:47</t>
           </r>
         </is>
       </c>
@@ -752,7 +752,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-19</t>
+            <t xml:space="preserve">2023-01-05</t>
           </r>
         </is>
       </c>
@@ -761,7 +761,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1005000</t>
+            <t xml:space="preserve">1271000</t>
           </r>
         </is>
       </c>
@@ -770,7 +770,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">27000</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -779,7 +779,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">978000</t>
+            <t xml:space="preserve">1261000</t>
           </r>
         </is>
       </c>
@@ -788,7 +788,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">NILDA ESCOBAR </t>
           </r>
         </is>
       </c>
@@ -799,7 +799,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25</t>
+            <t xml:space="preserve">232</t>
           </r>
         </is>
       </c>
@@ -808,7 +808,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-18 23:47</t>
+            <t xml:space="preserve">2023-01-05 05:58</t>
           </r>
         </is>
       </c>
@@ -817,7 +817,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-18 23:52</t>
+            <t xml:space="preserve">2023-01-05 13:49</t>
           </r>
         </is>
       </c>
@@ -826,7 +826,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-18</t>
+            <t xml:space="preserve">2023-01-05</t>
           </r>
         </is>
       </c>
@@ -835,7 +835,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">200000</t>
+            <t xml:space="preserve">953000</t>
           </r>
         </is>
       </c>
@@ -844,7 +844,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">55000</t>
+            <t xml:space="preserve">290000</t>
           </r>
         </is>
       </c>
@@ -853,7 +853,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">145000</t>
+            <t xml:space="preserve">663000</t>
           </r>
         </is>
       </c>
@@ -862,7 +862,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">JULIO</t>
           </r>
         </is>
       </c>
@@ -873,7 +873,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">24</t>
+            <t xml:space="preserve">231</t>
           </r>
         </is>
       </c>
@@ -882,7 +882,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-16 10:34</t>
+            <t xml:space="preserve">2023-01-04 21:57</t>
           </r>
         </is>
       </c>
@@ -891,7 +891,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-18 23:09</t>
+            <t xml:space="preserve">2023-01-05 01:15</t>
           </r>
         </is>
       </c>
@@ -900,7 +900,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-18</t>
+            <t xml:space="preserve">2023-01-05</t>
           </r>
         </is>
       </c>
@@ -909,7 +909,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1500000</t>
+            <t xml:space="preserve">473000</t>
           </r>
         </is>
       </c>
@@ -918,7 +918,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">265000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -927,7 +927,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1235000</t>
+            <t xml:space="preserve">473000</t>
           </r>
         </is>
       </c>
@@ -936,7 +936,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">OSMAR YRIGOYEN</t>
           </r>
         </is>
       </c>
@@ -947,7 +947,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">23</t>
+            <t xml:space="preserve">230</t>
           </r>
         </is>
       </c>
@@ -956,7 +956,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-14 14:44</t>
+            <t xml:space="preserve">2023-01-04 13:51</t>
           </r>
         </is>
       </c>
@@ -965,7 +965,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-14 14:48</t>
+            <t xml:space="preserve">2023-01-04 21:46</t>
           </r>
         </is>
       </c>
@@ -974,7 +974,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-14</t>
+            <t xml:space="preserve">2023-01-04</t>
           </r>
         </is>
       </c>
@@ -983,7 +983,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1190000</t>
+            <t xml:space="preserve">978000</t>
           </r>
         </is>
       </c>
@@ -992,7 +992,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -1001,7 +1001,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1190000</t>
+            <t xml:space="preserve">968000</t>
           </r>
         </is>
       </c>
@@ -1010,7 +1010,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">JULIO</t>
           </r>
         </is>
       </c>
@@ -1021,7 +1021,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">22</t>
+            <t xml:space="preserve">229</t>
           </r>
         </is>
       </c>
@@ -1030,7 +1030,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-09 14:14</t>
+            <t xml:space="preserve">2023-01-04 05:59</t>
           </r>
         </is>
       </c>
@@ -1039,7 +1039,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-13 23:34</t>
+            <t xml:space="preserve">2023-01-04 13:18</t>
           </r>
         </is>
       </c>
@@ -1048,7 +1048,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-13</t>
+            <t xml:space="preserve">2023-01-04</t>
           </r>
         </is>
       </c>
@@ -1057,7 +1057,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4940000</t>
+            <t xml:space="preserve">393000</t>
           </r>
         </is>
       </c>
@@ -1066,7 +1066,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">30000</t>
           </r>
         </is>
       </c>
@@ -1075,7 +1075,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4940000</t>
+            <t xml:space="preserve">363000</t>
           </r>
         </is>
       </c>
@@ -1084,7 +1084,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">NILDA ESCOBAR </t>
           </r>
         </is>
       </c>
@@ -1095,7 +1095,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21</t>
+            <t xml:space="preserve">228</t>
           </r>
         </is>
       </c>
@@ -1104,7 +1104,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-06 02:08</t>
+            <t xml:space="preserve">2023-01-03 21:46</t>
           </r>
         </is>
       </c>
@@ -1113,7 +1113,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-06 02:13</t>
+            <t xml:space="preserve">2023-01-04 05:59</t>
           </r>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-06</t>
+            <t xml:space="preserve">2023-01-04</t>
           </r>
         </is>
       </c>
@@ -1131,7 +1131,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">794000</t>
           </r>
         </is>
       </c>
@@ -1140,7 +1140,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">5000</t>
           </r>
         </is>
       </c>
@@ -1149,7 +1149,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">789000</t>
           </r>
         </is>
       </c>
@@ -1158,7 +1158,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">JULIO</t>
           </r>
         </is>
       </c>
@@ -1169,7 +1169,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">20</t>
+            <t xml:space="preserve">227</t>
           </r>
         </is>
       </c>
@@ -1178,7 +1178,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-06 01:49</t>
+            <t xml:space="preserve">2023-01-03 13:55</t>
           </r>
         </is>
       </c>
@@ -1187,7 +1187,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-06 21:24</t>
+            <t xml:space="preserve">2023-01-03 21:35</t>
           </r>
         </is>
       </c>
@@ -1196,7 +1196,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-06</t>
+            <t xml:space="preserve">2023-01-03</t>
           </r>
         </is>
       </c>
@@ -1205,7 +1205,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2058000</t>
+            <t xml:space="preserve">1208000</t>
           </r>
         </is>
       </c>
@@ -1214,7 +1214,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">305000</t>
           </r>
         </is>
       </c>
@@ -1223,7 +1223,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2058000</t>
+            <t xml:space="preserve">903000</t>
           </r>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">NILDA ESCOBAR </t>
           </r>
         </is>
       </c>
@@ -1243,7 +1243,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">19</t>
+            <t xml:space="preserve">226</t>
           </r>
         </is>
       </c>
@@ -1252,7 +1252,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-02 23:58</t>
+            <t xml:space="preserve">2023-01-03 05:46</t>
           </r>
         </is>
       </c>
@@ -1261,7 +1261,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-06 02:04</t>
+            <t xml:space="preserve">2023-01-03 13:21</t>
           </r>
         </is>
       </c>
@@ -1270,7 +1270,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-06</t>
+            <t xml:space="preserve">2023-01-03</t>
           </r>
         </is>
       </c>
@@ -1279,7 +1279,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1726000</t>
+            <t xml:space="preserve">385000</t>
           </r>
         </is>
       </c>
@@ -1297,7 +1297,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1726000</t>
+            <t xml:space="preserve">385000</t>
           </r>
         </is>
       </c>
@@ -1306,7 +1306,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">JHON RODRIGUEZ</t>
           </r>
         </is>
       </c>
@@ -1317,7 +1317,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">18</t>
+            <t xml:space="preserve">225</t>
           </r>
         </is>
       </c>
@@ -1326,7 +1326,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-02 00:32</t>
+            <t xml:space="preserve">2023-01-02 21:57</t>
           </r>
         </is>
       </c>
@@ -1335,7 +1335,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-02 21:11</t>
+            <t xml:space="preserve">2023-01-03 05:16</t>
           </r>
         </is>
       </c>
@@ -1344,7 +1344,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-02</t>
+            <t xml:space="preserve">2023-01-03</t>
           </r>
         </is>
       </c>
@@ -1353,7 +1353,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2200000</t>
+            <t xml:space="preserve">395000</t>
           </r>
         </is>
       </c>
@@ -1371,7 +1371,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2200000</t>
+            <t xml:space="preserve">395000</t>
           </r>
         </is>
       </c>
@@ -1380,7 +1380,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">OSMAR YRIGOYEN</t>
           </r>
         </is>
       </c>
@@ -1391,7 +1391,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">17</t>
+            <t xml:space="preserve">224</t>
           </r>
         </is>
       </c>
@@ -1400,7 +1400,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-30 21:36</t>
+            <t xml:space="preserve">2023-01-02 13:56</t>
           </r>
         </is>
       </c>
@@ -1409,7 +1409,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-02 00:21</t>
+            <t xml:space="preserve">2023-01-02 21:48</t>
           </r>
         </is>
       </c>
@@ -1418,7 +1418,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-09-02</t>
+            <t xml:space="preserve">2023-01-02</t>
           </r>
         </is>
       </c>
@@ -1427,7 +1427,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3470000</t>
+            <t xml:space="preserve">1226000</t>
           </r>
         </is>
       </c>
@@ -1436,7 +1436,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">315000</t>
           </r>
         </is>
       </c>
@@ -1445,7 +1445,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3470000</t>
+            <t xml:space="preserve">911000</t>
           </r>
         </is>
       </c>
@@ -1454,7 +1454,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">NILDA ESCOBAR </t>
           </r>
         </is>
       </c>
@@ -1465,7 +1465,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">16</t>
+            <t xml:space="preserve">223</t>
           </r>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-29 23:21</t>
+            <t xml:space="preserve">2023-01-02 06:04</t>
           </r>
         </is>
       </c>
@@ -1483,7 +1483,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-29 23:23</t>
+            <t xml:space="preserve">2023-01-02 13:44</t>
           </r>
         </is>
       </c>
@@ -1492,7 +1492,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-29</t>
+            <t xml:space="preserve">2023-01-02</t>
           </r>
         </is>
       </c>
@@ -1501,7 +1501,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">320000</t>
+            <t xml:space="preserve">410000</t>
           </r>
         </is>
       </c>
@@ -1510,7 +1510,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">340000</t>
           </r>
         </is>
       </c>
@@ -1519,7 +1519,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">320000</t>
+            <t xml:space="preserve">70000</t>
           </r>
         </is>
       </c>
@@ -1528,7 +1528,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">JULIO</t>
           </r>
         </is>
       </c>
@@ -1539,7 +1539,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15</t>
+            <t xml:space="preserve">222</t>
           </r>
         </is>
       </c>
@@ -1548,7 +1548,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28 02:35</t>
+            <t xml:space="preserve">2023-01-01 21:56</t>
           </r>
         </is>
       </c>
@@ -1557,7 +1557,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28 02:35</t>
+            <t xml:space="preserve">2023-01-02 05:49</t>
           </r>
         </is>
       </c>
@@ -1566,7 +1566,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28</t>
+            <t xml:space="preserve">2023-01-02</t>
           </r>
         </is>
       </c>
@@ -1575,7 +1575,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">90000</t>
+            <t xml:space="preserve">430000</t>
           </r>
         </is>
       </c>
@@ -1593,7 +1593,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">90000</t>
+            <t xml:space="preserve">430000</t>
           </r>
         </is>
       </c>
@@ -1602,7 +1602,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">OSMAR YRIGOYEN</t>
           </r>
         </is>
       </c>
@@ -1613,7 +1613,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">14</t>
+            <t xml:space="preserve">221</t>
           </r>
         </is>
       </c>
@@ -1622,7 +1622,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28 22:37</t>
+            <t xml:space="preserve">2023-01-01 13:58</t>
           </r>
         </is>
       </c>
@@ -1631,7 +1631,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-29 22:24</t>
+            <t xml:space="preserve">2023-01-01 21:44</t>
           </r>
         </is>
       </c>
@@ -1640,7 +1640,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-29</t>
+            <t xml:space="preserve">2023-01-01</t>
           </r>
         </is>
       </c>
@@ -1649,7 +1649,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2036000</t>
+            <t xml:space="preserve">627000</t>
           </r>
         </is>
       </c>
@@ -1658,7 +1658,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -1667,7 +1667,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2036000</t>
+            <t xml:space="preserve">617000</t>
           </r>
         </is>
       </c>
@@ -1676,7 +1676,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
+            <t xml:space="preserve">JULIO</t>
           </r>
         </is>
       </c>
@@ -1687,7 +1687,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13</t>
+            <t xml:space="preserve">220</t>
           </r>
         </is>
       </c>
@@ -1696,7 +1696,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28 01:19</t>
+            <t xml:space="preserve">2023-01-01 06:00</t>
           </r>
         </is>
       </c>
@@ -1705,7 +1705,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28 01:22</t>
+            <t xml:space="preserve">2023-01-01 13:37</t>
           </r>
         </is>
       </c>
@@ -1714,7 +1714,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28</t>
+            <t xml:space="preserve">2023-01-01</t>
           </r>
         </is>
       </c>
@@ -1723,7 +1723,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">862000</t>
+            <t xml:space="preserve">846000</t>
           </r>
         </is>
       </c>
@@ -1741,7 +1741,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">862000</t>
+            <t xml:space="preserve">846000</t>
           </r>
         </is>
       </c>
@@ -1750,7 +1750,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
+            <t xml:space="preserve">NILDA ESCOBAR </t>
           </r>
         </is>
       </c>
@@ -1761,7 +1761,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">12</t>
+            <t xml:space="preserve">219</t>
           </r>
         </is>
       </c>
@@ -1770,7 +1770,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28 01:02</t>
+            <t xml:space="preserve">2022-12-31 21:54</t>
           </r>
         </is>
       </c>
@@ -1779,7 +1779,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28 02:26</t>
+            <t xml:space="preserve">2023-01-01 05:47</t>
           </r>
         </is>
       </c>
@@ -1788,7 +1788,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2022-08-28</t>
+            <t xml:space="preserve">2023-01-01</t>
           </r>
         </is>
       </c>
@@ -1797,7 +1797,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">577000</t>
+            <t xml:space="preserve">1257000</t>
           </r>
         </is>
       </c>
@@ -1806,7 +1806,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">100000</t>
           </r>
         </is>
       </c>
@@ -1815,7 +1815,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">577000</t>
+            <t xml:space="preserve">1157000</t>
           </r>
         </is>
       </c>
@@ -1824,834 +1824,20 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="24" customHeight="1" ht="11">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">11</t>
-          </r>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-26 10:38</t>
-          </r>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-27 22:52</t>
-          </r>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-27</t>
-          </r>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">3908000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">3908000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="25" customHeight="1" ht="11">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">10</t>
-          </r>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-26 00:50</t>
-          </r>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-26 10:14</t>
-          </r>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-26</t>
-          </r>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1288000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1288000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="26" customHeight="1" ht="11">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">9</t>
-          </r>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-25 22:24</t>
-          </r>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-25 22:26</t>
-          </r>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-25</t>
-          </r>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">3450000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">3450000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="27" customHeight="1" ht="11">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">8</t>
-          </r>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24 23:18</t>
-          </r>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-25 01:47</t>
-          </r>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-25</t>
-          </r>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1318000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1318000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="28" customHeight="1" ht="11">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">7</t>
-          </r>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24 17:26</t>
-          </r>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24 17:27</t>
-          </r>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24</t>
-          </r>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">200000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">200000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="29" customHeight="1" ht="11">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">6</t>
-          </r>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24 17:16</t>
-          </r>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24 17:16</t>
-          </r>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24</t>
-          </r>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">474000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">474000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="30" customHeight="1" ht="11">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5</t>
-          </r>
-        </is>
-      </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24 12:50</t>
-          </r>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24 12:53</t>
-          </r>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24</t>
-          </r>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1550000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1550000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="31" customHeight="1" ht="11">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">4</t>
-          </r>
-        </is>
-      </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24 02:36</t>
-          </r>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24 02:38</t>
-          </r>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24</t>
-          </r>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">390000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">390000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="32" customHeight="1" ht="11">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">3</t>
-          </r>
-        </is>
-      </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24 10:31</t>
-          </r>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24 10:33</t>
-          </r>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24</t>
-          </r>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">620000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">620000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="33" customHeight="1" ht="11">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2</t>
-          </r>
-        </is>
-      </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-23 10:55</t>
-          </r>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-23 23:43</t>
-          </r>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-23</t>
-          </r>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">3506000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">3506000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">PEDRO PABLO </t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="34" customHeight="1" ht="11">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24 02:22</t>
-          </r>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24 02:22</t>
-          </r>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2022-08-24</t>
-          </r>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">6362000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">6362000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="35" customHeight="1" ht="1128">
-      <c r="A35" s="3" t="inlineStr"/>
-      <c r="B35" s="3" t="inlineStr"/>
-      <c r="C35" s="3" t="inlineStr"/>
-      <c r="D35" s="3" t="inlineStr"/>
-      <c r="E35" s="3" t="inlineStr"/>
-      <c r="F35" s="3" t="inlineStr"/>
-      <c r="G35" s="3" t="inlineStr"/>
-      <c r="H35" s="3" t="inlineStr"/>
+            <t xml:space="preserve">JULIO</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="24" customHeight="1" ht="1029">
+      <c r="A24" s="3" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr"/>
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr"/>
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr"/>
+      <c r="G24" s="3" t="inlineStr"/>
+      <c r="H24" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
